--- a/biology/Zoologie/Donuea/Donuea.xlsx
+++ b/biology/Zoologie/Donuea/Donuea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donuea est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donuea est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Madagascar et à Maurice[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Madagascar et à Maurice.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 19/11/2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 19/11/2022) :
 Donuea argenticoma (Keyserling, 1877)
 Donuea collustrata Bosselaers &amp; Dierick, 2010
 Donuea decorsei (Simon, 1903)
@@ -577,9 +593,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit sous le nom Donuca par Simon en 1903[2]. Donuca Simon, 1903 étant préoccupé par Donuca Walker, 1865 dans les Lépidoptères, il est renommé Donuea par Strand en 1932[3]. Il est placé dans les Corinnidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit sous le nom Donuca par Simon en 1903. Donuca Simon, 1903 étant préoccupé par Donuca Walker, 1865 dans les Lépidoptères, il est renommé Donuea par Strand en 1932. Il est placé dans les Corinnidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1932 : « Miscellanea nomenklatorica zoologica et palaeontologica, III. » Folia Zoologica et Hydrobiologica, vol. 4, p. 133-147.
 Simon, 1903 : « Descriptions d'arachnides nouveaux de Madagascar, faisant partie des collections du Muséum. » Bulletin du Muséum National d'Histoire Naturelle, vol. 9, p. 133-140 (texte intégral).</t>
